--- a/clino_scattering_planes.xlsx
+++ b/clino_scattering_planes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,45 +522,45 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>hk02</t>
+          <t>h-k0</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>16.3655482504197</v>
+        <v>-163.6345873441618</v>
       </c>
       <c r="I3" t="n">
-        <v>15.24705525689201</v>
+        <v>15.24701048178853</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>h-k0</t>
+          <t>-h-k0</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -578,10 +578,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>-163.6345873441618</v>
+        <v>376.3654696312377</v>
       </c>
       <c r="I4" t="n">
-        <v>15.24701048178853</v>
+        <v>15.24693060735993</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -590,7 +590,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>-h-k0</t>
+          <t>-hk0</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -606,29 +606,29 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>376.3654696312377</v>
+        <v>16.36557946754619</v>
       </c>
       <c r="I5" t="n">
-        <v>15.24693060735993</v>
+        <v>15.24571639765113</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>-hk0</t>
+          <t>h0l</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -640,25 +640,25 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>16.36557946754619</v>
+        <v>-73.63467830802186</v>
       </c>
       <c r="I6" t="n">
-        <v>15.24571639765113</v>
+        <v>14.94598937456372</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>h0l</t>
+          <t>h0-l</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -677,13 +677,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H7" t="n">
-        <v>-73.63467830802186</v>
+        <v>106.3650992160354</v>
       </c>
       <c r="I7" t="n">
-        <v>14.94598937456372</v>
+        <v>14.94590077062923</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -692,11 +692,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>h0-l</t>
+          <t>-h0-l</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -714,10 +714,10 @@
         <v>-1</v>
       </c>
       <c r="H8" t="n">
-        <v>106.3650992160354</v>
+        <v>106.3650485029475</v>
       </c>
       <c r="I8" t="n">
-        <v>14.94590077062923</v>
+        <v>14.94576814017513</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -726,7 +726,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>-h0-l</t>
+          <t>-h0l</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -745,13 +745,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>106.3650485029475</v>
+        <v>-73.6347226243662</v>
       </c>
       <c r="I9" t="n">
-        <v>14.94576814017513</v>
+        <v>14.94581610481091</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -760,14 +760,14 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>-h0l</t>
+          <t>0kl</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -782,10 +782,10 @@
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>-73.6347226243662</v>
+        <v>-80.75929433524158</v>
       </c>
       <c r="I10" t="n">
-        <v>14.94581610481091</v>
+        <v>107.6843191406174</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0kl</t>
+          <t>0k-l</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -813,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H11" t="n">
-        <v>-80.75929433524158</v>
+        <v>459.2406869024605</v>
       </c>
       <c r="I11" t="n">
-        <v>107.6843191406174</v>
+        <v>-252.315883588018</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -828,14 +828,14 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0k-l</t>
+          <t>0-k-l</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -850,10 +850,10 @@
         <v>-1</v>
       </c>
       <c r="H12" t="n">
-        <v>459.2406869024605</v>
+        <v>-99.24076200953557</v>
       </c>
       <c r="I12" t="n">
-        <v>-252.315883588018</v>
+        <v>-432.3156296736273</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0-k-l</t>
+          <t>0-kl</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -881,13 +881,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>-99.24076200953557</v>
+        <v>-99.24068903453555</v>
       </c>
       <c r="I13" t="n">
-        <v>-432.3156296736273</v>
+        <v>-72.31589085216753</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -896,14 +896,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0-kl</t>
+          <t>hhl</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>-99.24068903453555</v>
+        <v>-84.17327527939591</v>
       </c>
       <c r="I14" t="n">
-        <v>-72.31589085216753</v>
+        <v>-26.66870275754673</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -930,14 +930,14 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>hhl</t>
+          <t>-h-hl</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -952,10 +952,10 @@
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>-84.17327527939591</v>
+        <v>-84.17331914366599</v>
       </c>
       <c r="I15" t="n">
-        <v>-26.66870275754673</v>
+        <v>-26.66885699994053</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -964,14 +964,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>-h-hl</t>
+          <t>hh-l</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -983,13 +983,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H16" t="n">
-        <v>-84.17331914366599</v>
+        <v>95.82634433098487</v>
       </c>
       <c r="I16" t="n">
-        <v>-26.66885699994053</v>
+        <v>-26.66890115199736</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -998,14 +998,14 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>hh-l</t>
+          <t>-h-h-l</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>-1</v>
       </c>
       <c r="H17" t="n">
-        <v>95.82634433098487</v>
+        <v>95.82686803262371</v>
       </c>
       <c r="I17" t="n">
-        <v>-26.66890115199736</v>
+        <v>-26.66885017846564</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1032,32 +1032,32 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>-h-h-l</t>
+          <t>hkh</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>95.82686803262371</v>
+        <v>-34.4931474593764</v>
       </c>
       <c r="I18" t="n">
-        <v>-26.66885017846564</v>
+        <v>130.2470757726207</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1066,17 +1066,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>hkh</t>
+          <t>-hk-h</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1088,10 +1088,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>-34.4931474593764</v>
+        <v>34.49334922742212</v>
       </c>
       <c r="I19" t="n">
-        <v>130.2470757726207</v>
+        <v>-49.75226630834369</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1100,32 +1100,32 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>-hk-h</t>
+          <t>h-kh</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>34.49334922742212</v>
+        <v>-214.493324265184</v>
       </c>
       <c r="I20" t="n">
-        <v>-49.75226630834369</v>
+        <v>130.2473581093853</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1134,17 +1134,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>h-kh</t>
+          <t>-h-k-h</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>-214.493324265184</v>
+        <v>34.49321932543143</v>
       </c>
       <c r="I21" t="n">
-        <v>130.2473581093853</v>
+        <v>-49.75291064269307</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1168,45 +1168,45 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>-h-k-h</t>
+          <t>hkk</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>34.49321932543143</v>
+        <v>-20.38790312912558</v>
       </c>
       <c r="I22" t="n">
-        <v>-49.75291064269307</v>
+        <v>14.75155044961241</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>hkk</t>
+          <t>-hkk</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1224,10 +1224,10 @@
         <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>-20.38790312912558</v>
+        <v>-20.38798492004405</v>
       </c>
       <c r="I23" t="n">
-        <v>14.75155044961241</v>
+        <v>14.75057443453965</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
@@ -1236,11 +1236,11 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>-hkk</t>
+          <t>h-k-k</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1252,29 +1252,29 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H24" t="n">
-        <v>-20.38798492004405</v>
+        <v>159.6122441054166</v>
       </c>
       <c r="I24" t="n">
-        <v>14.75057443453965</v>
+        <v>14.75150994079709</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>h-k-k</t>
+          <t>-h-k-k</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1292,10 +1292,10 @@
         <v>-1</v>
       </c>
       <c r="H25" t="n">
-        <v>159.6122441054166</v>
+        <v>20.38793714860336</v>
       </c>
       <c r="I25" t="n">
-        <v>14.75150994079709</v>
+        <v>-165.2488908882795</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1304,14 +1304,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>-h-k-k</t>
+          <t>h-hl</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -1320,16 +1320,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>20.38793714860336</v>
+        <v>-468.4659932810428</v>
       </c>
       <c r="I26" t="n">
-        <v>-165.2488908882795</v>
+        <v>-480.9032102894095</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1338,14 +1338,14 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>h-hl</t>
+          <t>-hhl</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C27" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -1360,10 +1360,10 @@
         <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>-468.4659932810428</v>
+        <v>-251.5336829280617</v>
       </c>
       <c r="I27" t="n">
-        <v>-480.9032102894095</v>
+        <v>59.09673816337565</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -1372,14 +1372,14 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>-hhl</t>
+          <t>h-h-l</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H28" t="n">
-        <v>-251.5336829280617</v>
+        <v>108.466405218572</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09673816337565</v>
+        <v>59.09687404470438</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1406,14 +1406,14 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>h-h-l</t>
+          <t>-hh-l</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C29" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1428,10 +1428,10 @@
         <v>-1</v>
       </c>
       <c r="H29" t="n">
-        <v>108.466405218572</v>
+        <v>108.4664232406511</v>
       </c>
       <c r="I29" t="n">
-        <v>59.09687404470438</v>
+        <v>59.09699590329742</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1440,51 +1440,51 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>-hh-l</t>
+          <t>hk-h</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>108.4664232406511</v>
+        <v>39.89501358610413</v>
       </c>
       <c r="I30" t="n">
-        <v>59.09699590329742</v>
+        <v>84.38029043267113</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>hk-h</t>
+          <t>-hkh</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -1496,44 +1496,44 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>39.89501358610413</v>
+        <v>-39.89497451931658</v>
       </c>
       <c r="I31" t="n">
-        <v>84.38029043267113</v>
+        <v>-95.61901505911408</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>-hkh</t>
+          <t>h-k-h</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-39.89497451931658</v>
+        <v>219.8950410466829</v>
       </c>
       <c r="I32" t="n">
-        <v>-95.61901505911408</v>
+        <v>84.38027527697608</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -1542,17 +1542,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>h-k-h</t>
+          <t>-h-kh</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -1564,10 +1564,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>219.8950410466829</v>
+        <v>-39.89496622419782</v>
       </c>
       <c r="I33" t="n">
-        <v>84.38027527697608</v>
+        <v>-95.61898081715771</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -1576,45 +1576,45 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>-h-kh</t>
+          <t>hk-k</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H34" t="n">
-        <v>-39.89496622419782</v>
+        <v>53.11834447701406</v>
       </c>
       <c r="I34" t="n">
-        <v>-95.61898081715771</v>
+        <v>15.03092225791461</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>hk-k</t>
+          <t>-hk-k</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1632,10 +1632,10 @@
         <v>-1</v>
       </c>
       <c r="H35" t="n">
-        <v>53.11834447701406</v>
+        <v>53.11831356662042</v>
       </c>
       <c r="I35" t="n">
-        <v>15.03092225791461</v>
+        <v>15.03048069096935</v>
       </c>
       <c r="J35" t="n">
         <v>1</v>
@@ -1644,11 +1644,11 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>-hk-k</t>
+          <t>h-kk</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1660,29 +1660,29 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G36" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>53.11831356662042</v>
+        <v>-126.8816489351713</v>
       </c>
       <c r="I36" t="n">
-        <v>15.03048069096935</v>
+        <v>15.03096397597807</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>h-kk</t>
+          <t>-h-kk</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1700,46 +1700,12 @@
         <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>-126.8816489351713</v>
+        <v>-486.8817630874536</v>
       </c>
       <c r="I37" t="n">
-        <v>15.03096397597807</v>
+        <v>375.0307310259893</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>-h-kk</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G38" t="n">
-        <v>1</v>
-      </c>
-      <c r="H38" t="n">
-        <v>-486.8817630874536</v>
-      </c>
-      <c r="I38" t="n">
-        <v>375.0307310259893</v>
-      </c>
-      <c r="J38" t="n">
         <v>0</v>
       </c>
     </row>
